--- a/StructureDefinition-mp4p-kreatinin.xlsx
+++ b/StructureDefinition-mp4p-kreatinin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="614">
   <si>
     <t>Property</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>O@c</t>
   </si>
   <si>
     <t>Observation.value[x].comparator</t>
@@ -8552,12 +8555,12 @@
         <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8583,20 +8586,20 @@
         <v>166</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>80</v>
@@ -8620,10 +8623,10 @@
         <v>231</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8641,7 +8644,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8662,10 +8665,10 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8679,7 +8682,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8705,14 +8708,14 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8761,7 +8764,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8782,10 +8785,10 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8825,21 +8828,21 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>80</v>
@@ -8881,7 +8884,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8890,7 +8893,7 @@
         <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>102</v>
@@ -8902,10 +8905,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8919,7 +8922,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8945,23 +8948,23 @@
         <v>166</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>80</v>
@@ -9003,7 +9006,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9024,10 +9027,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -9041,7 +9044,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9067,16 +9070,16 @@
         <v>240</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9104,10 +9107,10 @@
         <v>148</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -9125,7 +9128,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9134,7 +9137,7 @@
         <v>90</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>102</v>
@@ -9149,7 +9152,7 @@
         <v>189</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9163,11 +9166,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9189,16 +9192,16 @@
         <v>240</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9226,10 +9229,10 @@
         <v>148</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -9247,7 +9250,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9265,19 +9268,19 @@
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9285,7 +9288,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9308,19 +9311,19 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9369,7 +9372,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9390,10 +9393,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9407,7 +9410,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9433,13 +9436,13 @@
         <v>240</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9468,10 +9471,10 @@
         <v>156</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9489,7 +9492,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9507,19 +9510,19 @@
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9553,16 +9556,16 @@
         <v>240</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9590,10 +9593,10 @@
         <v>156</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -9611,7 +9614,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9632,10 +9635,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9649,7 +9652,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9672,16 +9675,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9731,7 +9734,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9749,19 +9752,19 @@
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9769,7 +9772,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9792,16 +9795,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9851,7 +9854,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9869,19 +9872,19 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9889,7 +9892,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9912,19 +9915,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9973,7 +9976,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9985,7 +9988,7 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
@@ -9994,10 +9997,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -10011,7 +10014,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10129,7 +10132,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10249,11 +10252,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -10275,10 +10278,10 @@
         <v>110</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>113</v>
@@ -10333,7 +10336,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10371,7 +10374,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10394,13 +10397,13 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10451,7 +10454,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10460,7 +10463,7 @@
         <v>90</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>102</v>
@@ -10472,10 +10475,10 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10489,7 +10492,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10512,13 +10515,13 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10569,7 +10572,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10578,7 +10581,7 @@
         <v>90</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>102</v>
@@ -10590,10 +10593,10 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10607,7 +10610,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10633,16 +10636,16 @@
         <v>240</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10670,10 +10673,10 @@
         <v>170</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>80</v>
@@ -10691,7 +10694,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10709,13 +10712,13 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10729,7 +10732,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10755,16 +10758,16 @@
         <v>240</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10792,10 +10795,10 @@
         <v>156</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>80</v>
@@ -10813,7 +10816,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10831,13 +10834,13 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10851,7 +10854,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10874,17 +10877,17 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10933,7 +10936,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10957,7 +10960,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10971,7 +10974,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10997,10 +11000,10 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -11051,7 +11054,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11072,10 +11075,10 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -11089,7 +11092,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11112,16 +11115,16 @@
         <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -11171,7 +11174,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11192,10 +11195,10 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11209,7 +11212,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11232,16 +11235,16 @@
         <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11291,7 +11294,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11312,10 +11315,10 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11329,7 +11332,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11352,19 +11355,19 @@
         <v>91</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -11413,7 +11416,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11434,10 +11437,10 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11451,7 +11454,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11569,7 +11572,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11689,11 +11692,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11715,10 +11718,10 @@
         <v>110</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>113</v>
@@ -11773,7 +11776,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11811,7 +11814,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11837,13 +11840,13 @@
         <v>240</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>254</v>
@@ -11895,7 +11898,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>90</v>
@@ -11913,7 +11916,7 @@
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>259</v>
@@ -11933,7 +11936,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11956,16 +11959,16 @@
         <v>91</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>400</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>402</v>
@@ -12017,7 +12020,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12035,7 +12038,7 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>405</v>
@@ -12055,7 +12058,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12081,16 +12084,16 @@
         <v>240</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
@@ -12118,10 +12121,10 @@
         <v>148</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>80</v>
@@ -12139,7 +12142,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12148,7 +12151,7 @@
         <v>90</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>102</v>
@@ -12163,7 +12166,7 @@
         <v>189</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>80</v>
@@ -12177,11 +12180,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12203,16 +12206,16 @@
         <v>240</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -12240,10 +12243,10 @@
         <v>148</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>80</v>
@@ -12261,7 +12264,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12279,19 +12282,19 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12299,7 +12302,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12325,16 +12328,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
@@ -12383,7 +12386,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12404,10 +12407,10 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-mp4p-kreatinin.xlsx
+++ b/StructureDefinition-mp4p-kreatinin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -271,10 +271,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -294,47 +290,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -385,10 +385,6 @@
   </si>
   <si>
     <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2253,39 +2249,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.3203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2520,19 +2516,19 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
@@ -2546,7 +2542,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2557,28 +2553,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2628,13 +2624,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2666,7 +2662,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2677,25 +2673,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2746,19 +2742,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2784,7 +2780,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2795,7 +2791,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2807,7 +2803,7 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -2870,7 +2866,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -3033,28 +3029,28 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3104,19 +3100,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -3142,7 +3138,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3153,28 +3149,28 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3224,19 +3220,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3262,7 +3258,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3273,28 +3269,28 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3344,19 +3340,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3382,7 +3378,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3396,25 +3392,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3464,7 +3460,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3476,7 +3472,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3502,7 +3498,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3522,19 +3518,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3560,31 +3556,31 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3596,7 +3592,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3622,7 +3618,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3642,19 +3638,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3680,31 +3676,31 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3716,7 +3712,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3742,7 +3738,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3753,28 +3749,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3824,19 +3820,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3862,7 +3858,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3873,11 +3869,11 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3885,16 +3881,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3920,43 +3916,43 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -3982,18 +3978,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -4005,16 +4001,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4064,31 +4060,31 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -4102,11 +4098,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4125,16 +4121,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4184,7 +4180,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4208,7 +4204,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4222,7 +4218,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4251,7 +4247,7 @@
         <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>113</v>
@@ -4304,7 +4300,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4328,7 +4324,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4342,7 +4338,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4359,7 +4355,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4368,16 +4364,16 @@
         <v>110</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>113</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4426,7 +4422,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4450,7 +4446,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4464,7 +4460,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4484,20 +4480,20 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4546,7 +4542,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4558,22 +4554,22 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4584,11 +4580,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4604,20 +4600,20 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4666,7 +4662,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4678,19 +4674,19 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4704,11 +4700,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4724,19 +4720,19 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4786,7 +4782,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4798,19 +4794,19 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4824,7 +4820,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4832,110 +4828,110 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="I22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4946,7 +4942,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4969,19 +4965,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -5006,14 +5002,14 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>80</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5042,7 +5038,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
@@ -5054,10 +5050,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5068,42 +5064,42 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -5128,61 +5124,61 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5190,7 +5186,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5201,7 +5197,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -5213,7 +5209,7 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>104</v>
@@ -5276,7 +5272,7 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
@@ -5308,7 +5304,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5428,7 +5424,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5436,7 +5432,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>79</v>
@@ -5448,22 +5444,22 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5500,7 +5496,7 @@
         <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
@@ -5510,7 +5506,7 @@
         <v>116</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5522,7 +5518,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -5531,10 +5527,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5548,17 +5544,17 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
@@ -5570,22 +5566,22 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5595,7 +5591,7 @@
         <v>80</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5634,7 +5630,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5646,7 +5642,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
@@ -5655,10 +5651,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5672,7 +5668,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5683,7 +5679,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5695,7 +5691,7 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>104</v>
@@ -5758,7 +5754,7 @@
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5910,7 +5906,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5918,34 +5914,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5994,31 +5990,31 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6032,7 +6028,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6043,28 +6039,28 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6114,31 +6110,31 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6152,7 +6148,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6160,32 +6156,32 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6234,31 +6230,31 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6272,7 +6268,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6283,29 +6279,29 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6354,31 +6350,31 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6392,7 +6388,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6403,31 +6399,31 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6476,31 +6472,31 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6514,7 +6510,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6525,31 +6521,31 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6598,31 +6594,31 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6636,7 +6632,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6644,34 +6640,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="H37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6720,34 +6716,34 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6758,7 +6754,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6778,19 +6774,19 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6840,7 +6836,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6852,7 +6848,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6861,13 +6857,13 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6878,42 +6874,42 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6962,34 +6958,34 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7000,42 +6996,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -7072,44 +7068,44 @@
         <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7120,44 +7116,44 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7206,34 +7202,34 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7244,7 +7240,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7255,7 +7251,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7267,13 +7263,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7330,7 +7326,7 @@
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -7362,7 +7358,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7388,10 +7384,10 @@
         <v>110</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7478,10 +7474,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>80</v>
@@ -7491,11 +7487,11 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7503,13 +7499,13 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7569,7 +7565,7 @@
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>118</v>
@@ -7584,7 +7580,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7598,7 +7594,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7609,7 +7605,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>80</v>
@@ -7621,13 +7617,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7678,13 +7674,13 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>80</v>
@@ -7716,7 +7712,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7727,28 +7723,28 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7798,19 +7794,19 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>80</v>
@@ -7819,13 +7815,13 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7836,7 +7832,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7856,20 +7852,20 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7918,7 +7914,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7930,22 +7926,22 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7956,7 +7952,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7964,34 +7960,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -8028,47 +8024,47 @@
         <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AI48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8076,44 +8072,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8162,37 +8158,37 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8200,7 +8196,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8211,7 +8207,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8223,7 +8219,7 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>104</v>
@@ -8286,7 +8282,7 @@
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
@@ -8318,7 +8314,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8438,7 +8434,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8446,34 +8442,34 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8522,45 +8518,45 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8571,104 +8567,104 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I53" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P53" t="s" s="2">
+      <c r="Q53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="X53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Q53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="X53" t="s" s="2">
+      <c r="Y53" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8682,7 +8678,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8690,32 +8686,32 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8764,31 +8760,31 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8802,7 +8798,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8810,105 +8806,105 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="R55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH55" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH55" t="s" s="2">
+      <c r="AI55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8922,7 +8918,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8930,107 +8926,107 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="R56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -9044,7 +9040,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9067,19 +9063,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9104,55 +9100,55 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH57" t="s" s="2">
+      <c r="AI57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9166,11 +9162,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9189,19 +9185,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9226,14 +9222,14 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9250,7 +9246,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9262,25 +9258,25 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9288,7 +9284,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9311,19 +9307,19 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9372,7 +9368,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9384,7 +9380,7 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
@@ -9393,10 +9389,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9410,7 +9406,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9433,16 +9429,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9468,61 +9464,61 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9530,7 +9526,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9541,7 +9537,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9553,19 +9549,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9590,55 +9586,55 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9652,7 +9648,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9663,7 +9659,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9675,16 +9671,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9734,37 +9730,37 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9772,7 +9768,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9783,7 +9779,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9795,16 +9791,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9854,37 +9850,37 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9892,7 +9888,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9915,19 +9911,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9976,7 +9972,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9988,19 +9984,19 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -10014,7 +10010,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10025,7 +10021,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -10037,7 +10033,7 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>104</v>
@@ -10100,7 +10096,7 @@
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -10132,7 +10128,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10252,11 +10248,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -10269,25 +10265,25 @@
         <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>110</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>113</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10336,7 +10332,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10360,7 +10356,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10374,7 +10370,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10385,7 +10381,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -10397,13 +10393,13 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10454,31 +10450,31 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AI68" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10492,7 +10488,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10503,7 +10499,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10515,13 +10511,13 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10572,31 +10568,31 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AI69" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="AM69" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10610,7 +10606,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10621,7 +10617,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10633,19 +10629,19 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10670,55 +10666,55 @@
         <v>80</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10732,7 +10728,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10755,19 +10751,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10792,14 +10788,14 @@
         <v>80</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>562</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10816,7 +10812,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10828,19 +10824,19 @@
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="AM71" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10854,7 +10850,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10865,7 +10861,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -10877,17 +10873,17 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10936,19 +10932,19 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
@@ -10960,7 +10956,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10974,7 +10970,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10985,7 +10981,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10997,13 +10993,13 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -11054,19 +11050,19 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -11075,10 +11071,10 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -11092,7 +11088,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11112,19 +11108,19 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -11174,7 +11170,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11186,7 +11182,7 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -11195,10 +11191,10 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11212,7 +11208,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11232,19 +11228,19 @@
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11294,7 +11290,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11306,7 +11302,7 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -11315,10 +11311,10 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11332,7 +11328,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11352,22 +11348,22 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
@@ -11416,7 +11412,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11428,7 +11424,7 @@
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -11437,10 +11433,10 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11454,7 +11450,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11465,7 +11461,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>80</v>
@@ -11477,7 +11473,7 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>104</v>
@@ -11540,7 +11536,7 @@
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
@@ -11572,7 +11568,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11692,11 +11688,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11709,25 +11705,25 @@
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>110</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>113</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
@@ -11776,7 +11772,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11800,7 +11796,7 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11814,7 +11810,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11822,34 +11818,34 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="N80" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11874,14 +11870,14 @@
         <v>80</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11898,34 +11894,34 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11936,7 +11932,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11947,31 +11943,31 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J81" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
@@ -12020,37 +12016,37 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>80</v>
@@ -12058,7 +12054,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12069,7 +12065,7 @@
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>80</v>
@@ -12081,19 +12077,19 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
@@ -12118,55 +12114,55 @@
         <v>80</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH82" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH82" t="s" s="2">
+      <c r="AI82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>80</v>
@@ -12180,11 +12176,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12203,19 +12199,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -12240,14 +12236,14 @@
         <v>80</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12264,7 +12260,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12276,25 +12272,25 @@
         <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12302,7 +12298,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12328,16 +12324,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>613</v>
-      </c>
       <c r="M84" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
@@ -12386,7 +12382,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12398,7 +12394,7 @@
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -12407,10 +12403,10 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
